--- a/lab-7/Таблиця критичних значень для критерію Лівеня.xlsx
+++ b/lab-7/Таблиця критичних значень для критерію Лівеня.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavlo\Desktop\Учеба\БМД\bmd\lab-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E305EC-581F-4C50-B293-88CE87C70D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638ABCD3-90FE-4955-B9F8-F1BE751ECC26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D45EF938-AE8B-49D3-952A-D26B84B9B604}"/>
+    <workbookView xWindow="11904" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{D45EF938-AE8B-49D3-952A-D26B84B9B604}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +172,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +492,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,19 +502,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1413,6 +1416,11 @@
       </c>
       <c r="M23" s="1">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G24" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.4">
